--- a/contoh_excel/daftar_pcicilan.xlsx
+++ b/contoh_excel/daftar_pcicilan.xlsx
@@ -16,17 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
-  <si>
-    <t>NOURUT</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>NIK</t>
   </si>
   <si>
-    <t>201301</t>
-  </si>
-  <si>
     <t>A97040006</t>
   </si>
   <si>
@@ -51,10 +45,13 @@
     <t>KETERANGAN</t>
   </si>
   <si>
-    <t>satu</t>
-  </si>
-  <si>
-    <t>dua</t>
+    <t>KOPERASI</t>
+  </si>
+  <si>
+    <t>PINJAMAN PERUSAHAAN</t>
+  </si>
+  <si>
+    <t>201307</t>
   </si>
 </sst>
 </file>
@@ -98,13 +95,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -417,137 +411,106 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G5"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.7109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.140625" customWidth="1"/>
-    <col min="4" max="4" width="20.7109375" style="5" customWidth="1"/>
-    <col min="5" max="5" width="14.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" customWidth="1"/>
+    <col min="3" max="3" width="14.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="24.7109375" customWidth="1"/>
+    <col min="5" max="5" width="20.7109375" style="4" customWidth="1"/>
+    <col min="6" max="6" width="13.42578125" style="4" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="C2">
+        <v>17000</v>
+      </c>
+      <c r="D2" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>19000</v>
+      </c>
+      <c r="D3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="5"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>19000</v>
+      </c>
+      <c r="D4" t="s">
         <v>10</v>
       </c>
+      <c r="E4" s="5">
+        <v>2</v>
+      </c>
+      <c r="F4" s="4">
+        <v>3</v>
+      </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" s="2">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2">
-        <v>17000</v>
-      </c>
-      <c r="F2" s="5">
-        <v>3</v>
-      </c>
-      <c r="G2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" s="2">
-        <v>2</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="6">
-        <v>2</v>
-      </c>
-      <c r="E3">
-        <v>19000</v>
-      </c>
-      <c r="F3" s="5">
-        <v>3</v>
-      </c>
-      <c r="G3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="2">
-        <v>2</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="D4" s="6">
-        <v>2</v>
-      </c>
-      <c r="E4">
-        <v>19000</v>
-      </c>
-      <c r="F4" s="5">
-        <v>3</v>
-      </c>
-      <c r="G4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="2">
-        <v>3</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D5" s="6">
-        <v>3</v>
-      </c>
-      <c r="E5">
+      <c r="C5">
         <v>21000</v>
       </c>
-      <c r="F5" s="5">
-        <v>3</v>
-      </c>
-      <c r="G5" t="s">
-        <v>11</v>
-      </c>
+      <c r="D5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="5"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
